--- a/src/main/java/algestudiante/p6/P6_UO277876.xlsx
+++ b/src/main/java/algestudiante/p6/P6_UO277876.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infer\git\alg_AunonAndreaUO277876\src\main\java\algestudiante\p6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C93319-A98F-436C-8580-290510E1C995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6C35A-D7C7-41A3-920C-27CFE6AEAC61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{760BF4A0-4F21-48FC-9449-0A68ABD67C67}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>nVeces</t>
   </si>
@@ -51,19 +51,7 @@
     <t>n</t>
   </si>
   <si>
-    <t>nVeces = 100000</t>
-  </si>
-  <si>
-    <t>nVeces = 10000</t>
-  </si>
-  <si>
     <t>nVeces = 1000</t>
-  </si>
-  <si>
-    <t>nVeces = 100</t>
-  </si>
-  <si>
-    <t>nVeces = 10</t>
   </si>
   <si>
     <t>Complejidad:</t>
@@ -72,22 +60,10 @@
     <t>t(Prog. Dinámica)</t>
   </si>
   <si>
-    <t>t(DV)</t>
-  </si>
-  <si>
     <t>nVeces (Prog. Dinámica)</t>
   </si>
   <si>
-    <t>nVeces (DV)</t>
-  </si>
-  <si>
-    <t>nVeces = 1</t>
-  </si>
-  <si>
-    <t>O(n^2)</t>
-  </si>
-  <si>
-    <t>O(2^(n))</t>
+    <t>O(n!)</t>
   </si>
 </sst>
 </file>
@@ -118,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,12 +113,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -288,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -300,9 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,22 +451,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.036</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3860000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9880000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.533999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.77500000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>635.21699999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,358 +475,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A6E-4257-826E-AF8F6E6BA050}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1821346863"/>
-        <c:axId val="1821344367"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1821346863"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1821344367"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1821344367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1821346863"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.7041166557477007E-2"/>
-          <c:y val="0.15319444444444447"/>
-          <c:w val="0.84288557336926295"/>
-          <c:h val="0.77736111111111106"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Backtracking!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>t(DV)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Backtracking!$E$3:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Backtracking!$F$3:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6619999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43482999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.431800000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>426.66</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12597.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>390211</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D16A-4B04-8B6B-922C488C9AA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1090,563 +705,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2197,44 +1256,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD3300F-8227-4C4C-8C28-E8D976FAFB70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2540,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50AC779-C55D-4822-8A6D-58AA05F2A758}">
-  <dimension ref="A2:N12"/>
+  <dimension ref="A2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2557,220 +1578,139 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="N2" s="1" t="s">
+      <c r="G2" s="5"/>
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>100</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19" t="e">
         <f>1036/N9</f>
-        <v>1.036</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20">
-        <f>200/N7</f>
-        <v>2E-3</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="N3" s="2">
+      <c r="G3" s="7"/>
+      <c r="I3" s="2">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>200</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19" t="e">
         <f>2386/N9</f>
-        <v>2.3860000000000001</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="E4" s="16">
-        <v>4</v>
-      </c>
-      <c r="F4" s="20">
-        <f>1662/N7</f>
-        <v>1.6619999999999999E-2</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="J4" s="8" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="N4" s="2">
+      <c r="G4" s="9"/>
+      <c r="I4" s="2">
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>400</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19" t="e">
         <f>6988/N9</f>
-        <v>6.9880000000000004</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="E5" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="I5" s="2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>800</v>
+      </c>
+      <c r="B6" s="19" t="e">
+        <f>25534/N9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="I6" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>1600</v>
+      </c>
+      <c r="B7" s="19" t="e">
+        <f>123775/N9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="I7" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>3200</v>
+      </c>
+      <c r="B8" s="20" t="e">
+        <f>635217/N9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="I8" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="20">
-        <f>43483/N7</f>
-        <v>0.43482999999999999</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="N5" s="2">
-        <v>10000000</v>
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="I9" s="13">
+        <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>800</v>
-      </c>
-      <c r="B6" s="20">
-        <f>25534/N9</f>
-        <v>25.533999999999999</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="E6" s="16">
-        <v>8</v>
-      </c>
-      <c r="F6" s="20">
-        <f>144318/N8</f>
-        <v>14.431800000000001</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1000000</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="I10" s="13">
+        <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>1600</v>
-      </c>
-      <c r="B7" s="20">
-        <f>123775/N9</f>
-        <v>123.77500000000001</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="E7" s="16">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="13">
         <v>10</v>
       </c>
-      <c r="F7" s="20">
-        <f>42666/N10</f>
-        <v>426.66</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="3">
-        <v>100000</v>
-      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
-        <v>3200</v>
-      </c>
-      <c r="B8" s="21">
-        <f>635217/N9</f>
-        <v>635.21699999999998</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="E8" s="16">
-        <v>12</v>
-      </c>
-      <c r="F8" s="20">
-        <f>125979/N11</f>
-        <v>12597.9</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="E9" s="18">
-        <v>14</v>
-      </c>
-      <c r="F9" s="21">
-        <f>390211/N12</f>
-        <v>390211</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="E10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N11" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N12" s="14">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="13">
         <v>1</v>
       </c>
     </row>

--- a/src/main/java/algestudiante/p6/P6_UO277876.xlsx
+++ b/src/main/java/algestudiante/p6/P6_UO277876.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infer\git\alg_AunonAndreaUO277876\src\main\java\algestudiante\p6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6C35A-D7C7-41A3-920C-27CFE6AEAC61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094EBE03-B438-4932-B3D8-FAB386ED5909}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{760BF4A0-4F21-48FC-9449-0A68ABD67C67}"/>
+    <workbookView xWindow="11796" yWindow="720" windowWidth="10764" windowHeight="9480" xr2:uid="{760BF4A0-4F21-48FC-9449-0A68ABD67C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Backtracking" sheetId="5" r:id="rId1"/>
@@ -57,13 +57,13 @@
     <t>Complejidad:</t>
   </si>
   <si>
-    <t>t(Prog. Dinámica)</t>
-  </si>
-  <si>
     <t>nVeces (Prog. Dinámica)</t>
   </si>
   <si>
     <t>O(n!)</t>
+  </si>
+  <si>
+    <t>t(backtracking)</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>t(Prog. Dinámica)</c:v>
+                  <c:v>t(backtracking)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1564,7 +1564,7 @@
   <dimension ref="A2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15"/>
       <c r="I9" s="13">

--- a/src/main/java/algestudiante/p6/P6_UO277876.xlsx
+++ b/src/main/java/algestudiante/p6/P6_UO277876.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infer\git\alg_AunonAndreaUO277876\src\main\java\algestudiante\p6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094EBE03-B438-4932-B3D8-FAB386ED5909}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9659E0B5-3C18-4F4E-B721-696079C2332F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11796" yWindow="720" windowWidth="10764" windowHeight="9480" xr2:uid="{760BF4A0-4F21-48FC-9449-0A68ABD67C67}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>nVeces = 1000</t>
-  </si>
-  <si>
     <t>Complejidad:</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>t(backtracking)</t>
+  </si>
+  <si>
+    <t>nVeces = 100</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -283,17 +283,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,21 +450,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>25.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.4569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.4159999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1226,15 +1222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1561,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50AC779-C55D-4822-8A6D-58AA05F2A758}">
-  <dimension ref="A2:I12"/>
+  <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,10 +1579,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
@@ -1600,12 +1596,12 @@
       <c r="A3" s="15">
         <v>100</v>
       </c>
-      <c r="B3" s="19" t="e">
-        <f>1036/N9</f>
-        <v>#DIV/0!</v>
+      <c r="B3" s="17">
+        <f>2501/I10</f>
+        <v>25.01</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>2</v>
@@ -1619,9 +1615,9 @@
       <c r="A4" s="15">
         <v>200</v>
       </c>
-      <c r="B4" s="19" t="e">
-        <f>2386/N9</f>
-        <v>#DIV/0!</v>
+      <c r="B4" s="17">
+        <f>2457/I9</f>
+        <v>2.4569999999999999</v>
       </c>
       <c r="C4" s="12"/>
       <c r="F4" s="8" t="s">
@@ -1636,9 +1632,9 @@
       <c r="A5" s="15">
         <v>400</v>
       </c>
-      <c r="B5" s="19" t="e">
-        <f>6988/N9</f>
-        <v>#DIV/0!</v>
+      <c r="B5" s="17">
+        <f>2416/I9</f>
+        <v>2.4159999999999999</v>
       </c>
       <c r="C5" s="12"/>
       <c r="I5" s="2">
@@ -1649,9 +1645,9 @@
       <c r="A6" s="15">
         <v>800</v>
       </c>
-      <c r="B6" s="19" t="e">
-        <f>25534/N9</f>
-        <v>#DIV/0!</v>
+      <c r="B6" s="17">
+        <f>B10/I9</f>
+        <v>0</v>
       </c>
       <c r="C6" s="12"/>
       <c r="I6" s="2">
@@ -1662,7 +1658,7 @@
       <c r="A7" s="15">
         <v>1600</v>
       </c>
-      <c r="B7" s="19" t="e">
+      <c r="B7" s="17" t="e">
         <f>123775/N9</f>
         <v>#DIV/0!</v>
       </c>
@@ -1672,46 +1668,131 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <v>3200</v>
       </c>
-      <c r="B8" s="20" t="e">
-        <f>635217/N9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="3"/>
       <c r="I8" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15"/>
+      <c r="A9" s="15">
+        <v>6400</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="3"/>
       <c r="I9" s="13">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="15">
+        <v>12800</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="3"/>
       <c r="I10" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>25600</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="3"/>
       <c r="I11" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>51200</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="3"/>
       <c r="I12" s="13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>102400</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>204800</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>409600</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>819200</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>1638400</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>3276800</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>6553600</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>13107200</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>26214400</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>52428800</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/algestudiante/p6/P6_UO277876.xlsx
+++ b/src/main/java/algestudiante/p6/P6_UO277876.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infer\git\alg_AunonAndreaUO277876\src\main\java\algestudiante\p6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9659E0B5-3C18-4F4E-B721-696079C2332F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7D7696-F9B5-4FC0-BB41-3AF12DE9F042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11796" yWindow="720" windowWidth="10764" windowHeight="9480" xr2:uid="{760BF4A0-4F21-48FC-9449-0A68ABD67C67}"/>
+    <workbookView xWindow="12144" yWindow="1068" windowWidth="10764" windowHeight="9480" xr2:uid="{760BF4A0-4F21-48FC-9449-0A68ABD67C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Backtracking" sheetId="5" r:id="rId1"/>
@@ -423,19 +423,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3200</c:v>
@@ -450,19 +450,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>25.01</c:v>
+                  <c:v>4.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4569999999999999</c:v>
+                  <c:v>3.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4159999999999999</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,7 +1560,7 @@
   <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,11 +1594,11 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="B3" s="17">
-        <f>2501/I10</f>
-        <v>25.01</v>
+        <f>409/I10</f>
+        <v>4.09</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>9</v>
@@ -1613,11 +1613,11 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="B4" s="17">
-        <f>2457/I9</f>
-        <v>2.4569999999999999</v>
+        <f>337/I10</f>
+        <v>3.37</v>
       </c>
       <c r="C4" s="12"/>
       <c r="F4" s="8" t="s">
@@ -1630,11 +1630,11 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="B5" s="17">
-        <f>2416/I9</f>
-        <v>2.4159999999999999</v>
+        <f>269/I10</f>
+        <v>2.69</v>
       </c>
       <c r="C5" s="12"/>
       <c r="I5" s="2">
@@ -1643,11 +1643,11 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
-        <v>800</v>
+        <v>25</v>
       </c>
       <c r="B6" s="17">
-        <f>B10/I9</f>
-        <v>0</v>
+        <f>269/I10</f>
+        <v>2.69</v>
       </c>
       <c r="C6" s="12"/>
       <c r="I6" s="2">
@@ -1656,11 +1656,11 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
-        <v>1600</v>
-      </c>
-      <c r="B7" s="17" t="e">
-        <f>123775/N9</f>
-        <v>#DIV/0!</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="17">
+        <f>298/I10</f>
+        <v>2.98</v>
       </c>
       <c r="C7" s="12"/>
       <c r="I7" s="3">

--- a/src/main/java/algestudiante/p6/P6_UO277876.xlsx
+++ b/src/main/java/algestudiante/p6/P6_UO277876.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infer\git\alg_AunonAndreaUO277876\src\main\java\algestudiante\p6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7D7696-F9B5-4FC0-BB41-3AF12DE9F042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA8BC5D-2B4B-4AB9-A000-BDC9AD1CAD78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12144" yWindow="1068" windowWidth="10764" windowHeight="9480" xr2:uid="{760BF4A0-4F21-48FC-9449-0A68ABD67C67}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>nVeces</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Complejidad:</t>
   </si>
   <si>
-    <t>nVeces (Prog. Dinámica)</t>
-  </si>
-  <si>
     <t>O(n!)</t>
   </si>
   <si>
@@ -64,6 +61,18 @@
   </si>
   <si>
     <t>nVeces = 100</t>
+  </si>
+  <si>
+    <t>nVeces = 10000</t>
+  </si>
+  <si>
+    <t>nVeces = 1000</t>
+  </si>
+  <si>
+    <t>nVeces (backtracking)</t>
+  </si>
+  <si>
+    <t>Me para en 15</t>
   </si>
 </sst>
 </file>
@@ -258,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -289,10 +298,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +428,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Backtracking!$A$3:$A$8</c:f>
+              <c:f>Backtracking!$A$3:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -431,38 +441,23 @@
                 <c:pt idx="2">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3200</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Backtracking!$B$3:$B$8</c:f>
+              <c:f>Backtracking!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.09</c:v>
+                  <c:v>1.3299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.37</c:v>
+                  <c:v>2.0819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.98</c:v>
+                  <c:v>525.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,15 +1217,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1557,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50AC779-C55D-4822-8A6D-58AA05F2A758}">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,10 +1574,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
@@ -1597,8 +1592,8 @@
         <v>5</v>
       </c>
       <c r="B3" s="17">
-        <f>409/I10</f>
-        <v>4.09</v>
+        <f>133/I8</f>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>9</v>
@@ -1616,10 +1611,12 @@
         <v>10</v>
       </c>
       <c r="B4" s="17">
-        <f>337/I10</f>
-        <v>3.37</v>
-      </c>
-      <c r="C4" s="12"/>
+        <f>2082/I9</f>
+        <v>2.0819999999999999</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1633,167 +1630,96 @@
         <v>15</v>
       </c>
       <c r="B5" s="17">
-        <f>269/I10</f>
-        <v>2.69</v>
-      </c>
-      <c r="C5" s="12"/>
+        <f>52560/I10</f>
+        <v>525.6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I5" s="2">
         <v>10000000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
-        <v>25</v>
-      </c>
-      <c r="B6" s="17">
-        <f>269/I10</f>
-        <v>2.69</v>
-      </c>
-      <c r="C6" s="12"/>
+      <c r="A6" s="16">
+        <v>20</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="20"/>
       <c r="I6" s="2">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <v>30</v>
-      </c>
-      <c r="B7" s="17">
-        <f>298/I10</f>
-        <v>2.98</v>
-      </c>
-      <c r="C7" s="12"/>
+      <c r="A7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="I7" s="3">
         <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>3200</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="3"/>
       <c r="I8" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
-        <v>6400</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="3"/>
       <c r="I9" s="13">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
-        <v>12800</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="15"/>
       <c r="I10" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
-        <v>25600</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="15"/>
       <c r="I11" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
-        <v>51200</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="15"/>
       <c r="I12" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
-        <v>102400</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <v>204800</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <v>409600</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>819200</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>1638400</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>3276800</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>6553600</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <v>13107200</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <v>26214400</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>52428800</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
